--- a/PythonResources/Data/Consumption/Sympheny/futu_1045_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1045_coo.xlsx
@@ -22551,7 +22551,7 @@
         <v>2776</v>
       </c>
       <c r="B2776">
-        <v>8.329225454274765</v>
+        <v>8.329225454274763</v>
       </c>
     </row>
     <row r="2777" spans="1:2">
@@ -22727,7 +22727,7 @@
         <v>2798</v>
       </c>
       <c r="B2798">
-        <v>7.925021877753037</v>
+        <v>7.925021877753036</v>
       </c>
     </row>
     <row r="2799" spans="1:2">
@@ -24095,7 +24095,7 @@
         <v>2969</v>
       </c>
       <c r="B2969">
-        <v>9.500542474492564</v>
+        <v>9.500542474492562</v>
       </c>
     </row>
     <row r="2970" spans="1:2">
@@ -24119,7 +24119,7 @@
         <v>2972</v>
       </c>
       <c r="B2972">
-        <v>2.951987344020267</v>
+        <v>2.951987344020266</v>
       </c>
     </row>
     <row r="2973" spans="1:2">
@@ -24303,7 +24303,7 @@
         <v>2995</v>
       </c>
       <c r="B2995">
-        <v>7.519352946038002</v>
+        <v>7.519352946038001</v>
       </c>
     </row>
     <row r="2996" spans="1:2">
@@ -24511,7 +24511,7 @@
         <v>3021</v>
       </c>
       <c r="B3021">
-        <v>3.26630603298456</v>
+        <v>3.266306032984559</v>
       </c>
     </row>
     <row r="3022" spans="1:2">
@@ -24663,7 +24663,7 @@
         <v>3040</v>
       </c>
       <c r="B3040">
-        <v>12.02532016545619</v>
+        <v>12.02532016545618</v>
       </c>
     </row>
     <row r="3041" spans="1:2">
@@ -24703,7 +24703,7 @@
         <v>3045</v>
       </c>
       <c r="B3045">
-        <v>1.889182806577218</v>
+        <v>1.889182806577217</v>
       </c>
     </row>
     <row r="3046" spans="1:2">
@@ -24871,7 +24871,7 @@
         <v>3066</v>
       </c>
       <c r="B3066">
-        <v>7.198264316080633</v>
+        <v>7.198264316080632</v>
       </c>
     </row>
     <row r="3067" spans="1:2">
@@ -24879,7 +24879,7 @@
         <v>3067</v>
       </c>
       <c r="B3067">
-        <v>5.085573812578727</v>
+        <v>5.085573812578726</v>
       </c>
     </row>
     <row r="3068" spans="1:2">
@@ -26583,7 +26583,7 @@
         <v>3280</v>
       </c>
       <c r="B3280">
-        <v>7.820805816405063</v>
+        <v>7.820805816405062</v>
       </c>
     </row>
     <row r="3281" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>9.275024310242658</v>
+        <v>9.275024310242657</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -26959,7 +26959,7 @@
         <v>3327</v>
       </c>
       <c r="B3327">
-        <v>3.171087252523489</v>
+        <v>3.171087252523488</v>
       </c>
     </row>
     <row r="3328" spans="1:2">
@@ -26975,7 +26975,7 @@
         <v>3329</v>
       </c>
       <c r="B3329">
-        <v>6.775274885980713</v>
+        <v>6.775274885980712</v>
       </c>
     </row>
     <row r="3330" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>6.330861962954649</v>
+        <v>6.330861962954648</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27575,7 +27575,7 @@
         <v>3404</v>
       </c>
       <c r="B3404">
-        <v>7.400776403795622</v>
+        <v>7.400776403795621</v>
       </c>
     </row>
     <row r="3405" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>6.050246443436411</v>
+        <v>6.05024644343641</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>14.09067969621429</v>
+        <v>14.09067969621428</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27751,7 +27751,7 @@
         <v>3426</v>
       </c>
       <c r="B3426">
-        <v>8.390301458731789</v>
+        <v>8.390301458731788</v>
       </c>
     </row>
     <row r="3427" spans="1:2">
@@ -28527,7 +28527,7 @@
         <v>3523</v>
       </c>
       <c r="B3523">
-        <v>7.555869597455207</v>
+        <v>7.555869597455206</v>
       </c>
     </row>
     <row r="3524" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>5.820801127268444</v>
+        <v>5.820801127268443</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>13.90985486536024</v>
+        <v>13.90985486536023</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28919,7 +28919,7 @@
         <v>3572</v>
       </c>
       <c r="B3572">
-        <v>7.913592107245244</v>
+        <v>7.913592107245243</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -28927,7 +28927,7 @@
         <v>3573</v>
       </c>
       <c r="B3573">
-        <v>5.603635487620387</v>
+        <v>5.603635487620386</v>
       </c>
     </row>
     <row r="3574" spans="1:2">
@@ -29303,7 +29303,7 @@
         <v>3620</v>
       </c>
       <c r="B3620">
-        <v>7.617092137431561</v>
+        <v>7.61709213743156</v>
       </c>
     </row>
     <row r="3621" spans="1:2">
@@ -29407,7 +29407,7 @@
         <v>3633</v>
       </c>
       <c r="B3633">
-        <v>6.355509237306069</v>
+        <v>6.355509237306068</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -29439,7 +29439,7 @@
         <v>3637</v>
       </c>
       <c r="B3637">
-        <v>16.80366760820623</v>
+        <v>16.80366760820622</v>
       </c>
     </row>
     <row r="3638" spans="1:2">
@@ -29463,7 +29463,7 @@
         <v>3640</v>
       </c>
       <c r="B3640">
-        <v>20.31410181639569</v>
+        <v>20.31410181639568</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -29511,7 +29511,7 @@
         <v>3646</v>
       </c>
       <c r="B3646">
-        <v>7.708999215155759</v>
+        <v>7.708999215155758</v>
       </c>
     </row>
     <row r="3647" spans="1:2">
@@ -29711,7 +29711,7 @@
         <v>3671</v>
       </c>
       <c r="B3671">
-        <v>8.09740626269364</v>
+        <v>8.097406262693639</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -29719,7 +29719,7 @@
         <v>3672</v>
       </c>
       <c r="B3672">
-        <v>6.977962816318899</v>
+        <v>6.977962816318898</v>
       </c>
     </row>
     <row r="3673" spans="1:2">
@@ -29791,7 +29791,7 @@
         <v>3681</v>
       </c>
       <c r="B3681">
-        <v>6.234089905988673</v>
+        <v>6.234089905988672</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -30071,7 +30071,7 @@
         <v>3716</v>
       </c>
       <c r="B3716">
-        <v>20.32919497488675</v>
+        <v>20.32919497488674</v>
       </c>
     </row>
     <row r="3717" spans="1:2">
@@ -30199,7 +30199,7 @@
         <v>3732</v>
       </c>
       <c r="B3732">
-        <v>22.66708126449603</v>
+        <v>22.66708126449602</v>
       </c>
     </row>
     <row r="3733" spans="1:2">
@@ -30319,7 +30319,7 @@
         <v>3747</v>
       </c>
       <c r="B3747">
-        <v>4.586884133192582</v>
+        <v>4.586884133192581</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>26.04100298287704</v>
+        <v>26.04100298287703</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30455,7 +30455,7 @@
         <v>3764</v>
       </c>
       <c r="B3764">
-        <v>16.66870839490268</v>
+        <v>16.66870839490267</v>
       </c>
     </row>
     <row r="3765" spans="1:2">
@@ -30495,7 +30495,7 @@
         <v>3769</v>
       </c>
       <c r="B3769">
-        <v>8.135652033238946</v>
+        <v>8.135652033238944</v>
       </c>
     </row>
     <row r="3770" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>8.999918526251253</v>
+        <v>8.999918526251252</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30711,7 +30711,7 @@
         <v>3796</v>
       </c>
       <c r="B3796">
-        <v>0.6630028879220151</v>
+        <v>0.663002887922015</v>
       </c>
     </row>
     <row r="3797" spans="1:2">
@@ -30719,7 +30719,7 @@
         <v>3797</v>
       </c>
       <c r="B3797">
-        <v>1.325463594422507</v>
+        <v>1.325463594422506</v>
       </c>
     </row>
     <row r="3798" spans="1:2">
@@ -30879,7 +30879,7 @@
         <v>3817</v>
       </c>
       <c r="B3817">
-        <v>4.335048189670888</v>
+        <v>4.335048189670887</v>
       </c>
     </row>
     <row r="3818" spans="1:2">
@@ -31183,7 +31183,7 @@
         <v>3855</v>
       </c>
       <c r="B3855">
-        <v>8.169531045308197</v>
+        <v>8.169531045308196</v>
       </c>
     </row>
     <row r="3856" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>5.175136321993634</v>
+        <v>5.175136321993633</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>3.260884218769325</v>
+        <v>3.260884218769324</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31719,7 +31719,7 @@
         <v>3922</v>
       </c>
       <c r="B3922">
-        <v>7.386210773174153</v>
+        <v>7.386210773174152</v>
       </c>
     </row>
     <row r="3923" spans="1:2">
@@ -31967,7 +31967,7 @@
         <v>3953</v>
       </c>
       <c r="B3953">
-        <v>13.77474911653736</v>
+        <v>13.77474911653735</v>
       </c>
     </row>
     <row r="3954" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>7.423225645357081</v>
+        <v>7.42322564535708</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32367,7 +32367,7 @@
         <v>4003</v>
       </c>
       <c r="B4003">
-        <v>5.512109402246448</v>
+        <v>5.512109402246447</v>
       </c>
     </row>
     <row r="4004" spans="1:2">
@@ -32535,7 +32535,7 @@
         <v>4024</v>
       </c>
       <c r="B4024">
-        <v>7.994010800253918</v>
+        <v>7.994010800253917</v>
       </c>
     </row>
     <row r="4025" spans="1:2">
@@ -32775,7 +32775,7 @@
         <v>4054</v>
       </c>
       <c r="B4054">
-        <v>7.785314913623173</v>
+        <v>7.785314913623172</v>
       </c>
     </row>
     <row r="4055" spans="1:2">
@@ -32855,7 +32855,7 @@
         <v>4064</v>
       </c>
       <c r="B4064">
-        <v>9.573927462573364</v>
+        <v>9.573927462573362</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -33031,7 +33031,7 @@
         <v>4086</v>
       </c>
       <c r="B4086">
-        <v>7.822622856844763</v>
+        <v>7.822622856844762</v>
       </c>
     </row>
     <row r="4087" spans="1:2">
@@ -33167,7 +33167,7 @@
         <v>4103</v>
       </c>
       <c r="B4103">
-        <v>10.19207289731788</v>
+        <v>10.19207289731787</v>
       </c>
     </row>
     <row r="4104" spans="1:2">
@@ -33183,7 +33183,7 @@
         <v>4105</v>
       </c>
       <c r="B4105">
-        <v>6.609513906513856</v>
+        <v>6.609513906513855</v>
       </c>
     </row>
     <row r="4106" spans="1:2">
@@ -33191,7 +33191,7 @@
         <v>4106</v>
       </c>
       <c r="B4106">
-        <v>5.089764728431584</v>
+        <v>5.089764728431583</v>
       </c>
     </row>
     <row r="4107" spans="1:2">
@@ -33239,7 +33239,7 @@
         <v>4112</v>
       </c>
       <c r="B4112">
-        <v>10.86774817695161</v>
+        <v>10.8677481769516</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33367,7 +33367,7 @@
         <v>4128</v>
       </c>
       <c r="B4128">
-        <v>6.741014881561202</v>
+        <v>6.741014881561201</v>
       </c>
     </row>
     <row r="4129" spans="1:2">
@@ -33439,7 +33439,7 @@
         <v>4137</v>
       </c>
       <c r="B4137">
-        <v>13.05590447290881</v>
+        <v>13.0559044729088</v>
       </c>
     </row>
     <row r="4138" spans="1:2">
@@ -33503,7 +33503,7 @@
         <v>4145</v>
       </c>
       <c r="B4145">
-        <v>23.3499953987847</v>
+        <v>23.34999539878469</v>
       </c>
     </row>
     <row r="4146" spans="1:2">
@@ -33567,7 +33567,7 @@
         <v>4153</v>
       </c>
       <c r="B4153">
-        <v>5.60345964499719</v>
+        <v>5.603459644997189</v>
       </c>
     </row>
     <row r="4154" spans="1:2">
@@ -33623,7 +33623,7 @@
         <v>4160</v>
       </c>
       <c r="B4160">
-        <v>0.986661750888445</v>
+        <v>0.9866617508884448</v>
       </c>
     </row>
     <row r="4161" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>1.656141508764876</v>
+        <v>1.656141508764875</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>3.828562820656351</v>
+        <v>3.82856282065635</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>7.602614428121691</v>
+        <v>7.60261442812169</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33727,7 +33727,7 @@
         <v>4173</v>
       </c>
       <c r="B4173">
-        <v>3.886473657895833</v>
+        <v>3.886473657895832</v>
       </c>
     </row>
     <row r="4174" spans="1:2">
@@ -34023,7 +34023,7 @@
         <v>4210</v>
       </c>
       <c r="B4210">
-        <v>3.606737351493579</v>
+        <v>3.606737351493578</v>
       </c>
     </row>
     <row r="4211" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>6.514148590533455</v>
+        <v>6.514148590533454</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34039,7 +34039,7 @@
         <v>4212</v>
       </c>
       <c r="B4212">
-        <v>8.685892908325622</v>
+        <v>8.68589290832562</v>
       </c>
     </row>
     <row r="4213" spans="1:2">
@@ -34279,7 +34279,7 @@
         <v>4242</v>
       </c>
       <c r="B4242">
-        <v>18.45696925860648</v>
+        <v>18.45696925860647</v>
       </c>
     </row>
     <row r="4243" spans="1:2">
@@ -34319,7 +34319,7 @@
         <v>4247</v>
       </c>
       <c r="B4247">
-        <v>8.805583120514916</v>
+        <v>8.805583120514914</v>
       </c>
     </row>
     <row r="4248" spans="1:2">
@@ -34415,7 +34415,7 @@
         <v>4259</v>
       </c>
       <c r="B4259">
-        <v>19.68804346360732</v>
+        <v>19.68804346360731</v>
       </c>
     </row>
     <row r="4260" spans="1:2">
@@ -34551,7 +34551,7 @@
         <v>4276</v>
       </c>
       <c r="B4276">
-        <v>9.265411580174566</v>
+        <v>9.265411580174565</v>
       </c>
     </row>
     <row r="4277" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>33.17945149996689</v>
+        <v>33.17945149996688</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34647,7 +34647,7 @@
         <v>4288</v>
       </c>
       <c r="B4288">
-        <v>35.83672660750931</v>
+        <v>35.8367266075093</v>
       </c>
     </row>
     <row r="4289" spans="1:2">
@@ -34951,7 +34951,7 @@
         <v>4326</v>
       </c>
       <c r="B4326">
-        <v>6.042919667469877</v>
+        <v>6.042919667469876</v>
       </c>
     </row>
     <row r="4327" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>8.573119172648736</v>
+        <v>8.573119172648735</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35079,7 +35079,7 @@
         <v>4342</v>
       </c>
       <c r="B4342">
-        <v>14.52480582578334</v>
+        <v>14.52480582578333</v>
       </c>
     </row>
     <row r="4343" spans="1:2">
@@ -35087,7 +35087,7 @@
         <v>4343</v>
       </c>
       <c r="B4343">
-        <v>12.84961176879509</v>
+        <v>12.84961176879508</v>
       </c>
     </row>
     <row r="4344" spans="1:2">
@@ -35167,7 +35167,7 @@
         <v>4353</v>
       </c>
       <c r="B4353">
-        <v>6.834182164751644</v>
+        <v>6.834182164751643</v>
       </c>
     </row>
     <row r="4354" spans="1:2">
@@ -35303,7 +35303,7 @@
         <v>4370</v>
       </c>
       <c r="B4370">
-        <v>9.015802976546698</v>
+        <v>9.015802976546697</v>
       </c>
     </row>
     <row r="4371" spans="1:2">
@@ -35327,7 +35327,7 @@
         <v>4373</v>
       </c>
       <c r="B4373">
-        <v>7.866495591332366</v>
+        <v>7.866495591332365</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>28.75273068940273</v>
+        <v>28.75273068940272</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35447,7 +35447,7 @@
         <v>4388</v>
       </c>
       <c r="B4388">
-        <v>20.8164548837651</v>
+        <v>20.81645488376509</v>
       </c>
     </row>
     <row r="4389" spans="1:2">
@@ -35527,7 +35527,7 @@
         <v>4398</v>
       </c>
       <c r="B4398">
-        <v>18.18596646915633</v>
+        <v>18.18596646915632</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
@@ -35551,7 +35551,7 @@
         <v>4401</v>
       </c>
       <c r="B4401">
-        <v>23.8183522256694</v>
+        <v>23.81835222566939</v>
       </c>
     </row>
     <row r="4402" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>20.22237058129469</v>
+        <v>20.22237058129468</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -36071,7 +36071,7 @@
         <v>4466</v>
       </c>
       <c r="B4466">
-        <v>6.430887108449766</v>
+        <v>6.430887108449765</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
@@ -36271,7 +36271,7 @@
         <v>4491</v>
       </c>
       <c r="B4491">
-        <v>5.132787556907069</v>
+        <v>5.132787556907068</v>
       </c>
     </row>
     <row r="4492" spans="1:2">
@@ -36287,7 +36287,7 @@
         <v>4493</v>
       </c>
       <c r="B4493">
-        <v>2.596706115982278</v>
+        <v>2.596706115982277</v>
       </c>
     </row>
     <row r="4494" spans="1:2">
@@ -36311,7 +36311,7 @@
         <v>4496</v>
       </c>
       <c r="B4496">
-        <v>4.33238124321907</v>
+        <v>4.332381243219069</v>
       </c>
     </row>
     <row r="4497" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>7.952717090906534</v>
+        <v>7.952717090906533</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36751,7 +36751,7 @@
         <v>4551</v>
       </c>
       <c r="B4551">
-        <v>30.08608668689639</v>
+        <v>30.08608668689638</v>
       </c>
     </row>
     <row r="4552" spans="1:2">
@@ -36775,7 +36775,7 @@
         <v>4554</v>
       </c>
       <c r="B4554">
-        <v>23.62905764179803</v>
+        <v>23.62905764179802</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -37047,7 +37047,7 @@
         <v>4588</v>
       </c>
       <c r="B4588">
-        <v>8.024138503028304</v>
+        <v>8.024138503028302</v>
       </c>
     </row>
     <row r="4589" spans="1:2">
@@ -37143,7 +37143,7 @@
         <v>4600</v>
       </c>
       <c r="B4600">
-        <v>31.08838963911819</v>
+        <v>31.08838963911818</v>
       </c>
     </row>
     <row r="4601" spans="1:2">
@@ -37247,7 +37247,7 @@
         <v>4613</v>
       </c>
       <c r="B4613">
-        <v>9.7628996683022</v>
+        <v>9.762899668302198</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37271,7 +37271,7 @@
         <v>4616</v>
       </c>
       <c r="B4616">
-        <v>17.78073714399929</v>
+        <v>17.78073714399928</v>
       </c>
     </row>
     <row r="4617" spans="1:2">
@@ -37383,7 +37383,7 @@
         <v>4630</v>
       </c>
       <c r="B4630">
-        <v>10.67168365208717</v>
+        <v>10.67168365208716</v>
       </c>
     </row>
     <row r="4631" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>6.943702811899389</v>
+        <v>6.943702811899388</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37623,7 +37623,7 @@
         <v>4660</v>
       </c>
       <c r="B4660">
-        <v>5.951569424719136</v>
+        <v>5.951569424719135</v>
       </c>
     </row>
     <row r="4661" spans="1:2">
@@ -37631,7 +37631,7 @@
         <v>4661</v>
       </c>
       <c r="B4661">
-        <v>4.900968365325945</v>
+        <v>4.900968365325944</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37647,7 +37647,7 @@
         <v>4663</v>
       </c>
       <c r="B4663">
-        <v>5.255349865275244</v>
+        <v>5.255349865275243</v>
       </c>
     </row>
     <row r="4664" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>19.35092384783518</v>
+        <v>19.35092384783517</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37935,7 +37935,7 @@
         <v>4699</v>
       </c>
       <c r="B4699">
-        <v>25.90660060454694</v>
+        <v>25.90660060454693</v>
       </c>
     </row>
     <row r="4700" spans="1:2">
@@ -38071,7 +38071,7 @@
         <v>4716</v>
       </c>
       <c r="B4716">
-        <v>31.3650486996145</v>
+        <v>31.36504869961449</v>
       </c>
     </row>
     <row r="4717" spans="1:2">
@@ -38567,7 +38567,7 @@
         <v>4778</v>
       </c>
       <c r="B4778">
-        <v>7.596225479478874</v>
+        <v>7.596225479478873</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38575,7 +38575,7 @@
         <v>4779</v>
       </c>
       <c r="B4779">
-        <v>6.476547576273204</v>
+        <v>6.476547576273203</v>
       </c>
     </row>
     <row r="4780" spans="1:2">
@@ -38591,7 +38591,7 @@
         <v>4781</v>
       </c>
       <c r="B4781">
-        <v>5.975630556993233</v>
+        <v>5.975630556993232</v>
       </c>
     </row>
     <row r="4782" spans="1:2">
@@ -38655,7 +38655,7 @@
         <v>4789</v>
       </c>
       <c r="B4789">
-        <v>23.61132684395902</v>
+        <v>23.61132684395901</v>
       </c>
     </row>
     <row r="4790" spans="1:2">
@@ -38711,7 +38711,7 @@
         <v>4796</v>
       </c>
       <c r="B4796">
-        <v>16.73989535019352</v>
+        <v>16.73989535019351</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38943,7 +38943,7 @@
         <v>4825</v>
       </c>
       <c r="B4825">
-        <v>6.573729932693306</v>
+        <v>6.573729932693305</v>
       </c>
     </row>
     <row r="4826" spans="1:2">
@@ -38951,7 +38951,7 @@
         <v>4826</v>
       </c>
       <c r="B4826">
-        <v>4.938071158820472</v>
+        <v>4.938071158820471</v>
       </c>
     </row>
     <row r="4827" spans="1:2">
@@ -38999,7 +38999,7 @@
         <v>4832</v>
       </c>
       <c r="B4832">
-        <v>1.257060813998949</v>
+        <v>1.257060813998948</v>
       </c>
     </row>
     <row r="4833" spans="1:2">
@@ -39031,7 +39031,7 @@
         <v>4836</v>
       </c>
       <c r="B4836">
-        <v>8.682082984823024</v>
+        <v>8.682082984823023</v>
       </c>
     </row>
     <row r="4837" spans="1:2">
@@ -39135,7 +39135,7 @@
         <v>4849</v>
       </c>
       <c r="B4849">
-        <v>7.523426633475395</v>
+        <v>7.523426633475394</v>
       </c>
     </row>
     <row r="4850" spans="1:2">
@@ -39207,7 +39207,7 @@
         <v>4858</v>
       </c>
       <c r="B4858">
-        <v>9.506169438434862</v>
+        <v>9.50616943843486</v>
       </c>
     </row>
     <row r="4859" spans="1:2">
@@ -39359,7 +39359,7 @@
         <v>4877</v>
       </c>
       <c r="B4877">
-        <v>4.958732667046097</v>
+        <v>4.958732667046096</v>
       </c>
     </row>
     <row r="4878" spans="1:2">
@@ -39439,7 +39439,7 @@
         <v>4887</v>
       </c>
       <c r="B4887">
-        <v>28.90272444698961</v>
+        <v>28.9027244469896</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39511,7 +39511,7 @@
         <v>4896</v>
       </c>
       <c r="B4896">
-        <v>12.04700742231713</v>
+        <v>12.04700742231712</v>
       </c>
     </row>
     <row r="4897" spans="1:2">
@@ -39887,7 +39887,7 @@
         <v>4943</v>
       </c>
       <c r="B4943">
-        <v>18.49295838215409</v>
+        <v>18.49295838215408</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -39967,7 +39967,7 @@
         <v>4953</v>
       </c>
       <c r="B4953">
-        <v>23.54204485041948</v>
+        <v>23.54204485041947</v>
       </c>
     </row>
     <row r="4954" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>34.49387510836302</v>
+        <v>34.49387510836301</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40055,7 +40055,7 @@
         <v>4964</v>
       </c>
       <c r="B4964">
-        <v>24.07994743477851</v>
+        <v>24.0799474347785</v>
       </c>
     </row>
     <row r="4965" spans="1:2">
@@ -40255,7 +40255,7 @@
         <v>4989</v>
       </c>
       <c r="B4989">
-        <v>23.41359181417421</v>
+        <v>23.4135918141742</v>
       </c>
     </row>
     <row r="4990" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>22.96270202119373</v>
+        <v>22.96270202119372</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40591,7 +40591,7 @@
         <v>5031</v>
       </c>
       <c r="B5031">
-        <v>26.09199734360411</v>
+        <v>26.0919973436041</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -40631,7 +40631,7 @@
         <v>5036</v>
       </c>
       <c r="B5036">
-        <v>23.20589236907492</v>
+        <v>23.20589236907491</v>
       </c>
     </row>
     <row r="5037" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>29.38037162579987</v>
+        <v>29.38037162579986</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40863,7 +40863,7 @@
         <v>5065</v>
       </c>
       <c r="B5065">
-        <v>19.95652584212498</v>
+        <v>19.95652584212497</v>
       </c>
     </row>
     <row r="5066" spans="1:2">
@@ -40927,7 +40927,7 @@
         <v>5073</v>
       </c>
       <c r="B5073">
-        <v>26.50006945783617</v>
+        <v>26.50006945783616</v>
       </c>
     </row>
     <row r="5074" spans="1:2">
@@ -40967,7 +40967,7 @@
         <v>5078</v>
       </c>
       <c r="B5078">
-        <v>40.66946803503489</v>
+        <v>40.66946803503488</v>
       </c>
     </row>
     <row r="5079" spans="1:2">
@@ -41047,7 +41047,7 @@
         <v>5088</v>
       </c>
       <c r="B5088">
-        <v>23.92558691871558</v>
+        <v>23.92558691871557</v>
       </c>
     </row>
     <row r="5089" spans="1:2">
@@ -41063,7 +41063,7 @@
         <v>5090</v>
       </c>
       <c r="B5090">
-        <v>22.38564514606954</v>
+        <v>22.38564514606953</v>
       </c>
     </row>
     <row r="5091" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>24.9599811496708</v>
+        <v>24.95998114967079</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -41151,7 +41151,7 @@
         <v>5101</v>
       </c>
       <c r="B5101">
-        <v>39.38317924635025</v>
+        <v>39.38317924635024</v>
       </c>
     </row>
     <row r="5102" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>42.49647289004972</v>
+        <v>42.49647289004971</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>30.37124480751388</v>
+        <v>30.37124480751387</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41543,7 +41543,7 @@
         <v>5150</v>
       </c>
       <c r="B5150">
-        <v>40.86318799159004</v>
+        <v>40.86318799159003</v>
       </c>
     </row>
     <row r="5151" spans="1:2">
@@ -41567,7 +41567,7 @@
         <v>5153</v>
       </c>
       <c r="B5153">
-        <v>37.45682330922922</v>
+        <v>37.45682330922921</v>
       </c>
     </row>
     <row r="5154" spans="1:2">
@@ -41631,7 +41631,7 @@
         <v>5161</v>
       </c>
       <c r="B5161">
-        <v>19.92118147486242</v>
+        <v>19.92118147486241</v>
       </c>
     </row>
     <row r="5162" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>28.94949858475996</v>
+        <v>28.94949858475995</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41799,7 +41799,7 @@
         <v>5182</v>
       </c>
       <c r="B5182">
-        <v>21.87904254863954</v>
+        <v>21.87904254863953</v>
       </c>
     </row>
     <row r="5183" spans="1:2">
@@ -42087,7 +42087,7 @@
         <v>5218</v>
       </c>
       <c r="B5218">
-        <v>26.49793003925394</v>
+        <v>26.49793003925393</v>
       </c>
     </row>
     <row r="5219" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>27.93476942049892</v>
+        <v>27.93476942049891</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>34.41269443065383</v>
+        <v>34.41269443065382</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42543,7 +42543,7 @@
         <v>5275</v>
       </c>
       <c r="B5275">
-        <v>12.19524275367204</v>
+        <v>12.19524275367203</v>
       </c>
     </row>
     <row r="5276" spans="1:2">
@@ -42751,7 +42751,7 @@
         <v>5301</v>
       </c>
       <c r="B5301">
-        <v>6.42956828877579</v>
+        <v>6.429568288775789</v>
       </c>
     </row>
     <row r="5302" spans="1:2">
@@ -42759,7 +42759,7 @@
         <v>5302</v>
       </c>
       <c r="B5302">
-        <v>4.881273991527903</v>
+        <v>4.881273991527902</v>
       </c>
     </row>
     <row r="5303" spans="1:2">
@@ -43239,7 +43239,7 @@
         <v>5362</v>
       </c>
       <c r="B5362">
-        <v>3.846938374780417</v>
+        <v>3.846938374780416</v>
       </c>
     </row>
     <row r="5363" spans="1:2">
@@ -43247,7 +43247,7 @@
         <v>5363</v>
       </c>
       <c r="B5363">
-        <v>5.838414696691991</v>
+        <v>5.83841469669199</v>
       </c>
     </row>
     <row r="5364" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>20.49269930735591</v>
+        <v>20.4926993073559</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>24.8794159211428</v>
+        <v>24.87941592114279</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>25.20856400466335</v>
+        <v>25.20856400466334</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43567,7 +43567,7 @@
         <v>5403</v>
       </c>
       <c r="B5403">
-        <v>5.904062609352132</v>
+        <v>5.904062609352131</v>
       </c>
     </row>
     <row r="5404" spans="1:2">
@@ -43575,7 +43575,7 @@
         <v>5404</v>
       </c>
       <c r="B5404">
-        <v>5.021625711942821</v>
+        <v>5.02162571194282</v>
       </c>
     </row>
     <row r="5405" spans="1:2">
@@ -43591,7 +43591,7 @@
         <v>5406</v>
       </c>
       <c r="B5406">
-        <v>9.464787807775879</v>
+        <v>9.464787807775878</v>
       </c>
     </row>
     <row r="5407" spans="1:2">
@@ -43775,7 +43775,7 @@
         <v>5429</v>
       </c>
       <c r="B5429">
-        <v>7.237389299741922</v>
+        <v>7.237389299741921</v>
       </c>
     </row>
     <row r="5430" spans="1:2">
@@ -44215,7 +44215,7 @@
         <v>5484</v>
       </c>
       <c r="B5484">
-        <v>22.87762349867034</v>
+        <v>22.87762349867033</v>
       </c>
     </row>
     <row r="5485" spans="1:2">
@@ -44231,7 +44231,7 @@
         <v>5486</v>
       </c>
       <c r="B5486">
-        <v>29.4961346860711</v>
+        <v>29.49613468607109</v>
       </c>
     </row>
     <row r="5487" spans="1:2">
@@ -44415,7 +44415,7 @@
         <v>5509</v>
       </c>
       <c r="B5509">
-        <v>18.09423523405533</v>
+        <v>18.09423523405532</v>
       </c>
     </row>
     <row r="5510" spans="1:2">
@@ -44471,7 +44471,7 @@
         <v>5516</v>
       </c>
       <c r="B5516">
-        <v>15.72440420123196</v>
+        <v>15.72440420123195</v>
       </c>
     </row>
     <row r="5517" spans="1:2">
@@ -44535,7 +44535,7 @@
         <v>5524</v>
       </c>
       <c r="B5524">
-        <v>7.046482825157922</v>
+        <v>7.046482825157921</v>
       </c>
     </row>
     <row r="5525" spans="1:2">
@@ -44567,7 +44567,7 @@
         <v>5528</v>
       </c>
       <c r="B5528">
-        <v>6.775362807292312</v>
+        <v>6.775362807292311</v>
       </c>
     </row>
     <row r="5529" spans="1:2">
@@ -44647,7 +44647,7 @@
         <v>5538</v>
       </c>
       <c r="B5538">
-        <v>20.02615952091092</v>
+        <v>20.02615952091091</v>
       </c>
     </row>
     <row r="5539" spans="1:2">
@@ -44839,7 +44839,7 @@
         <v>5562</v>
       </c>
       <c r="B5562">
-        <v>27.57657799704702</v>
+        <v>27.57657799704701</v>
       </c>
     </row>
     <row r="5563" spans="1:2">
@@ -44903,7 +44903,7 @@
         <v>5570</v>
       </c>
       <c r="B5570">
-        <v>11.70402638577176</v>
+        <v>11.70402638577175</v>
       </c>
     </row>
     <row r="5571" spans="1:2">
@@ -44927,7 +44927,7 @@
         <v>5573</v>
       </c>
       <c r="B5573">
-        <v>9.619412087773606</v>
+        <v>9.619412087773604</v>
       </c>
     </row>
     <row r="5574" spans="1:2">
@@ -44975,7 +44975,7 @@
         <v>5579</v>
       </c>
       <c r="B5579">
-        <v>18.76264235193026</v>
+        <v>18.76264235193025</v>
       </c>
     </row>
     <row r="5580" spans="1:2">
@@ -45023,7 +45023,7 @@
         <v>5585</v>
       </c>
       <c r="B5585">
-        <v>21.01377961409578</v>
+        <v>21.01377961409577</v>
       </c>
     </row>
     <row r="5586" spans="1:2">
@@ -45151,7 +45151,7 @@
         <v>5601</v>
       </c>
       <c r="B5601">
-        <v>8.662945445998439</v>
+        <v>8.662945445998437</v>
       </c>
     </row>
     <row r="5602" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>9.220864782298042</v>
+        <v>9.22086478229804</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45487,7 +45487,7 @@
         <v>5643</v>
       </c>
       <c r="B5643">
-        <v>0.6730464324169394</v>
+        <v>0.6730464324169393</v>
       </c>
     </row>
     <row r="5644" spans="1:2">
@@ -45551,7 +45551,7 @@
         <v>5651</v>
       </c>
       <c r="B5651">
-        <v>13.61810264637287</v>
+        <v>13.61810264637286</v>
       </c>
     </row>
     <row r="5652" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>19.45560882284501</v>
+        <v>19.455608822845</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45663,7 +45663,7 @@
         <v>5665</v>
       </c>
       <c r="B5665">
-        <v>4.997740422291922</v>
+        <v>4.997740422291921</v>
       </c>
     </row>
     <row r="5666" spans="1:2">
@@ -45911,7 +45911,7 @@
         <v>5696</v>
       </c>
       <c r="B5696">
-        <v>4.922860771913948</v>
+        <v>4.922860771913947</v>
       </c>
     </row>
     <row r="5697" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>7.854977899512975</v>
+        <v>7.854977899512974</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -46015,7 +46015,7 @@
         <v>5709</v>
       </c>
       <c r="B5709">
-        <v>8.768685476747452</v>
+        <v>8.76868547674745</v>
       </c>
     </row>
     <row r="5710" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>7.95843197616043</v>
+        <v>7.958431976160429</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46031,7 +46031,7 @@
         <v>5711</v>
       </c>
       <c r="B5711">
-        <v>7.072741990221979</v>
+        <v>7.072741990221978</v>
       </c>
     </row>
     <row r="5712" spans="1:2">
@@ -46055,7 +46055,7 @@
         <v>5714</v>
       </c>
       <c r="B5714">
-        <v>4.573901086179884</v>
+        <v>4.573901086179883</v>
       </c>
     </row>
     <row r="5715" spans="1:2">
@@ -46239,7 +46239,7 @@
         <v>5737</v>
       </c>
       <c r="B5737">
-        <v>8.075894848455897</v>
+        <v>8.075894848455896</v>
       </c>
     </row>
     <row r="5738" spans="1:2">
@@ -46247,7 +46247,7 @@
         <v>5738</v>
       </c>
       <c r="B5738">
-        <v>7.072067926833058</v>
+        <v>7.072067926833057</v>
       </c>
     </row>
     <row r="5739" spans="1:2">
@@ -46271,7 +46271,7 @@
         <v>5741</v>
       </c>
       <c r="B5741">
-        <v>5.473746403285679</v>
+        <v>5.473746403285678</v>
       </c>
     </row>
     <row r="5742" spans="1:2">
@@ -46471,7 +46471,7 @@
         <v>5766</v>
       </c>
       <c r="B5766">
-        <v>12.5095028284286</v>
+        <v>12.50950282842859</v>
       </c>
     </row>
     <row r="5767" spans="1:2">
@@ -46503,7 +46503,7 @@
         <v>5770</v>
       </c>
       <c r="B5770">
-        <v>19.68783831388026</v>
+        <v>19.68783831388025</v>
       </c>
     </row>
     <row r="5771" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>26.7645953773319</v>
+        <v>26.76459537733189</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>23.06246340275405</v>
+        <v>23.06246340275404</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>5.219653812766293</v>
+        <v>5.219653812766292</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -46751,7 +46751,7 @@
         <v>5801</v>
       </c>
       <c r="B5801">
-        <v>21.77684867745833</v>
+        <v>21.77684867745832</v>
       </c>
     </row>
     <row r="5802" spans="1:2">
@@ -46807,7 +46807,7 @@
         <v>5808</v>
       </c>
       <c r="B5808">
-        <v>4.362743402824385</v>
+        <v>4.362743402824384</v>
       </c>
     </row>
     <row r="5809" spans="1:2">
@@ -47079,7 +47079,7 @@
         <v>5842</v>
       </c>
       <c r="B5842">
-        <v>6.611887781927013</v>
+        <v>6.611887781927012</v>
       </c>
     </row>
     <row r="5843" spans="1:2">
@@ -47103,7 +47103,7 @@
         <v>5845</v>
       </c>
       <c r="B5845">
-        <v>16.40356702622576</v>
+        <v>16.40356702622575</v>
       </c>
     </row>
     <row r="5846" spans="1:2">
@@ -47231,7 +47231,7 @@
         <v>5861</v>
       </c>
       <c r="B5861">
-        <v>6.629208280311898</v>
+        <v>6.629208280311897</v>
       </c>
     </row>
     <row r="5862" spans="1:2">
@@ -47599,7 +47599,7 @@
         <v>5907</v>
       </c>
       <c r="B5907">
-        <v>6.267500004396066</v>
+        <v>6.267500004396065</v>
       </c>
     </row>
     <row r="5908" spans="1:2">
@@ -47695,7 +47695,7 @@
         <v>5919</v>
       </c>
       <c r="B5919">
-        <v>28.60059751323363</v>
+        <v>28.60059751323362</v>
       </c>
     </row>
     <row r="5920" spans="1:2">
@@ -47727,7 +47727,7 @@
         <v>5923</v>
       </c>
       <c r="B5923">
-        <v>15.66411948857932</v>
+        <v>15.66411948857931</v>
       </c>
     </row>
     <row r="5924" spans="1:2">
@@ -47775,7 +47775,7 @@
         <v>5929</v>
       </c>
       <c r="B5929">
-        <v>5.743518294373447</v>
+        <v>5.743518294373446</v>
       </c>
     </row>
     <row r="5930" spans="1:2">
@@ -47815,7 +47815,7 @@
         <v>5934</v>
       </c>
       <c r="B5934">
-        <v>5.272670363660129</v>
+        <v>5.272670363660128</v>
       </c>
     </row>
     <row r="5935" spans="1:2">
@@ -47823,7 +47823,7 @@
         <v>5935</v>
       </c>
       <c r="B5935">
-        <v>7.616974909016097</v>
+        <v>7.616974909016096</v>
       </c>
     </row>
     <row r="5936" spans="1:2">
@@ -47871,7 +47871,7 @@
         <v>5941</v>
       </c>
       <c r="B5941">
-        <v>24.88454466431937</v>
+        <v>24.88454466431936</v>
       </c>
     </row>
     <row r="5942" spans="1:2">
@@ -47911,7 +47911,7 @@
         <v>5946</v>
       </c>
       <c r="B5946">
-        <v>21.90550686343066</v>
+        <v>21.90550686343065</v>
       </c>
     </row>
     <row r="5947" spans="1:2">
@@ -47927,7 +47927,7 @@
         <v>5948</v>
       </c>
       <c r="B5948">
-        <v>15.79521016417254</v>
+        <v>15.79521016417253</v>
       </c>
     </row>
     <row r="5949" spans="1:2">
@@ -47975,7 +47975,7 @@
         <v>5954</v>
       </c>
       <c r="B5954">
-        <v>8.254023425754264</v>
+        <v>8.254023425754262</v>
       </c>
     </row>
     <row r="5955" spans="1:2">
@@ -47983,7 +47983,7 @@
         <v>5955</v>
       </c>
       <c r="B5955">
-        <v>7.226252600272791</v>
+        <v>7.22625260027279</v>
       </c>
     </row>
     <row r="5956" spans="1:2">
@@ -48007,7 +48007,7 @@
         <v>5958</v>
       </c>
       <c r="B5958">
-        <v>10.81997759764981</v>
+        <v>10.8199775976498</v>
       </c>
     </row>
     <row r="5959" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>17.94538445351923</v>
+        <v>17.94538445351922</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48087,7 +48087,7 @@
         <v>5968</v>
       </c>
       <c r="B5968">
-        <v>27.9743340107182</v>
+        <v>27.97433401071819</v>
       </c>
     </row>
     <row r="5969" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>18.45831738538432</v>
+        <v>18.45831738538431</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -48399,7 +48399,7 @@
         <v>6007</v>
       </c>
       <c r="B6007">
-        <v>4.355064941611458</v>
+        <v>4.355064941611457</v>
       </c>
     </row>
     <row r="6008" spans="1:2">
@@ -48415,7 +48415,7 @@
         <v>6009</v>
       </c>
       <c r="B6009">
-        <v>7.304854252841764</v>
+        <v>7.304854252841763</v>
       </c>
     </row>
     <row r="6010" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>7.743816054548727</v>
+        <v>7.743816054548726</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48735,7 +48735,7 @@
         <v>6049</v>
       </c>
       <c r="B6049">
-        <v>4.258585955684143</v>
+        <v>4.258585955684142</v>
       </c>
     </row>
     <row r="6050" spans="1:2">
@@ -48775,7 +48775,7 @@
         <v>6054</v>
       </c>
       <c r="B6054">
-        <v>4.337890978745903</v>
+        <v>4.337890978745902</v>
       </c>
     </row>
     <row r="6055" spans="1:2">
@@ -48783,7 +48783,7 @@
         <v>6055</v>
       </c>
       <c r="B6055">
-        <v>6.570857836514425</v>
+        <v>6.570857836514424</v>
       </c>
     </row>
     <row r="6056" spans="1:2">
@@ -48903,7 +48903,7 @@
         <v>6070</v>
       </c>
       <c r="B6070">
-        <v>9.197858705763126</v>
+        <v>9.197858705763124</v>
       </c>
     </row>
     <row r="6071" spans="1:2">
@@ -48911,7 +48911,7 @@
         <v>6071</v>
       </c>
       <c r="B6071">
-        <v>7.784289164987858</v>
+        <v>7.784289164987857</v>
       </c>
     </row>
     <row r="6072" spans="1:2">
@@ -49119,7 +49119,7 @@
         <v>6097</v>
       </c>
       <c r="B6097">
-        <v>6.020529040116151</v>
+        <v>6.02052904011615</v>
       </c>
     </row>
     <row r="6098" spans="1:2">
@@ -49303,7 +49303,7 @@
         <v>6120</v>
       </c>
       <c r="B6120">
-        <v>5.205293331871887</v>
+        <v>5.205293331871886</v>
       </c>
     </row>
     <row r="6121" spans="1:2">
@@ -49367,7 +49367,7 @@
         <v>6128</v>
       </c>
       <c r="B6128">
-        <v>7.448165990747162</v>
+        <v>7.448165990747161</v>
       </c>
     </row>
     <row r="6129" spans="1:2">
@@ -49527,7 +49527,7 @@
         <v>6148</v>
       </c>
       <c r="B6148">
-        <v>1.07196007669083</v>
+        <v>1.071960076690829</v>
       </c>
     </row>
     <row r="6149" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>1.568624635199825</v>
+        <v>1.568624635199824</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49567,7 +49567,7 @@
         <v>6153</v>
       </c>
       <c r="B6153">
-        <v>12.95409159407786</v>
+        <v>12.95409159407785</v>
       </c>
     </row>
     <row r="6154" spans="1:2">
@@ -49639,7 +49639,7 @@
         <v>6162</v>
       </c>
       <c r="B6162">
-        <v>20.6472649731459</v>
+        <v>20.64726497314589</v>
       </c>
     </row>
     <row r="6163" spans="1:2">
@@ -49647,7 +49647,7 @@
         <v>6163</v>
       </c>
       <c r="B6163">
-        <v>17.39215425383821</v>
+        <v>17.3921542538382</v>
       </c>
     </row>
     <row r="6164" spans="1:2">
@@ -49751,7 +49751,7 @@
         <v>6176</v>
       </c>
       <c r="B6176">
-        <v>5.204912339521627</v>
+        <v>5.204912339521626</v>
       </c>
     </row>
     <row r="6177" spans="1:2">
@@ -50063,7 +50063,7 @@
         <v>6215</v>
       </c>
       <c r="B6215">
-        <v>7.563870436810661</v>
+        <v>7.56387043681066</v>
       </c>
     </row>
     <row r="6216" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>18.63040869928626</v>
+        <v>18.63040869928625</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50311,7 +50311,7 @@
         <v>6246</v>
       </c>
       <c r="B6246">
-        <v>14.74537108947987</v>
+        <v>14.74537108947986</v>
       </c>
     </row>
     <row r="6247" spans="1:2">
@@ -50487,7 +50487,7 @@
         <v>6268</v>
       </c>
       <c r="B6268">
-        <v>4.053787913867595</v>
+        <v>4.053787913867594</v>
       </c>
     </row>
     <row r="6269" spans="1:2">
@@ -50495,7 +50495,7 @@
         <v>6269</v>
       </c>
       <c r="B6269">
-        <v>4.408609020374885</v>
+        <v>4.408609020374884</v>
       </c>
     </row>
     <row r="6270" spans="1:2">
@@ -50639,7 +50639,7 @@
         <v>6287</v>
       </c>
       <c r="B6287">
-        <v>2.837721876756595</v>
+        <v>2.837721876756594</v>
       </c>
     </row>
     <row r="6288" spans="1:2">
@@ -50751,7 +50751,7 @@
         <v>6301</v>
       </c>
       <c r="B6301">
-        <v>3.43045512173878</v>
+        <v>3.430455121738779</v>
       </c>
     </row>
     <row r="6302" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>8.013265567493969</v>
+        <v>8.013265567493967</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>9.39609195631366</v>
+        <v>9.396091956313658</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50783,7 +50783,7 @@
         <v>6305</v>
       </c>
       <c r="B6305">
-        <v>6.986139498297551</v>
+        <v>6.98613949829755</v>
       </c>
     </row>
     <row r="6306" spans="1:2">
@@ -50791,7 +50791,7 @@
         <v>6306</v>
       </c>
       <c r="B6306">
-        <v>4.894784566410191</v>
+        <v>4.89478456641019</v>
       </c>
     </row>
     <row r="6307" spans="1:2">
@@ -50975,7 +50975,7 @@
         <v>6329</v>
       </c>
       <c r="B6329">
-        <v>6.728735205041292</v>
+        <v>6.728735205041291</v>
       </c>
     </row>
     <row r="6330" spans="1:2">
@@ -51767,7 +51767,7 @@
         <v>6428</v>
       </c>
       <c r="B6428">
-        <v>3.392912721686261</v>
+        <v>3.39291272168626</v>
       </c>
     </row>
     <row r="6429" spans="1:2">
@@ -51775,7 +51775,7 @@
         <v>6429</v>
       </c>
       <c r="B6429">
-        <v>2.234010190666157</v>
+        <v>2.234010190666156</v>
       </c>
     </row>
     <row r="6430" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>4.7786405137887</v>
+        <v>4.778640513788699</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>9.267990605314786</v>
+        <v>9.267990605314784</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -52047,7 +52047,7 @@
         <v>6463</v>
       </c>
       <c r="B6463">
-        <v>1.470352054515903</v>
+        <v>1.470352054515902</v>
       </c>
     </row>
     <row r="6464" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>12.13094296778974</v>
+        <v>12.13094296778973</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>9.861137080461482</v>
+        <v>9.86113708046148</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52567,7 +52567,7 @@
         <v>6528</v>
       </c>
       <c r="B6528">
-        <v>3.262261652651033</v>
+        <v>3.262261652651032</v>
       </c>
     </row>
     <row r="6529" spans="1:2">
@@ -52727,7 +52727,7 @@
         <v>6548</v>
       </c>
       <c r="B6548">
-        <v>5.001550345794519</v>
+        <v>5.001550345794518</v>
       </c>
     </row>
     <row r="6549" spans="1:2">
@@ -52887,7 +52887,7 @@
         <v>6568</v>
       </c>
       <c r="B6568">
-        <v>7.326922502052963</v>
+        <v>7.326922502052962</v>
       </c>
     </row>
     <row r="6569" spans="1:2">
@@ -53071,7 +53071,7 @@
         <v>6591</v>
       </c>
       <c r="B6591">
-        <v>3.397250173058449</v>
+        <v>3.397250173058448</v>
       </c>
     </row>
     <row r="6592" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>5.802718644183039</v>
+        <v>5.802718644183038</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -57135,7 +57135,7 @@
         <v>7099</v>
       </c>
       <c r="B7099">
-        <v>2.239686976685027</v>
+        <v>2.239686976685026</v>
       </c>
     </row>
     <row r="7100" spans="1:2">
@@ -57359,7 +57359,7 @@
         <v>7127</v>
       </c>
       <c r="B7127">
-        <v>0.8276853659665981</v>
+        <v>0.827685365966598</v>
       </c>
     </row>
     <row r="7128" spans="1:2">
@@ -57527,7 +57527,7 @@
         <v>7148</v>
       </c>
       <c r="B7148">
-        <v>0.9260693136452118</v>
+        <v>0.9260693136452116</v>
       </c>
     </row>
     <row r="7149" spans="1:2">
